--- a/Experiments/Measurements/Single Banner Vertical/Straight path/Antenna_4/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/Straight path/Antenna_4/Transformed_Coordinates.xlsx
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-23.55782624978944</v>
+        <v>-23.55782624978942</v>
       </c>
       <c r="H5" t="n">
-        <v>177.0066285695932</v>
+        <v>177.0066285695931</v>
       </c>
     </row>
     <row r="6">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>138.617806860585</v>
+        <v>138.6178068605849</v>
       </c>
       <c r="H7" t="n">
         <v>152.9700290005831</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-9.439311233865304</v>
+        <v>-9.43931123386529</v>
       </c>
       <c r="H11" t="n">
         <v>132.9797588743003</v>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>82.65587428369547</v>
+        <v>82.65587428369548</v>
       </c>
       <c r="H12" t="n">
         <v>114.0373745551855</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>74.42126725739141</v>
+        <v>74.42126725739139</v>
       </c>
       <c r="H13" t="n">
         <v>110.4398389266344</v>
@@ -854,7 +854,7 @@
         <v>116.3750479288962</v>
       </c>
       <c r="H14" t="n">
-        <v>92.55543894964219</v>
+        <v>92.55543894964221</v>
       </c>
     </row>
     <row r="15">
@@ -944,7 +944,7 @@
         <v>116.7783135361123</v>
       </c>
       <c r="H17" t="n">
-        <v>97.32392083564457</v>
+        <v>97.32392083564456</v>
       </c>
     </row>
     <row r="18">
@@ -974,7 +974,7 @@
         <v>117.7058540708365</v>
       </c>
       <c r="H18" t="n">
-        <v>83.74709002515614</v>
+        <v>83.74709002515611</v>
       </c>
     </row>
     <row r="19">
@@ -1004,7 +1004,7 @@
         <v>117.2753249764932</v>
       </c>
       <c r="H19" t="n">
-        <v>78.27771000898633</v>
+        <v>78.27771000898635</v>
       </c>
     </row>
     <row r="20">
@@ -1034,7 +1034,7 @@
         <v>105.6163395860697</v>
       </c>
       <c r="H20" t="n">
-        <v>70.1282617299747</v>
+        <v>70.12826172997471</v>
       </c>
     </row>
     <row r="21">
@@ -1124,7 +1124,7 @@
         <v>116.844221758736</v>
       </c>
       <c r="H23" t="n">
-        <v>76.43764055963298</v>
+        <v>76.43764055963295</v>
       </c>
     </row>
     <row r="24">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>99.58002809601004</v>
+        <v>99.58002809601003</v>
       </c>
       <c r="H25" t="n">
-        <v>73.97002797246923</v>
+        <v>73.97002797246924</v>
       </c>
     </row>
     <row r="26">
@@ -1214,7 +1214,7 @@
         <v>140.328964564984</v>
       </c>
       <c r="H26" t="n">
-        <v>70.62792536644892</v>
+        <v>70.62792536644888</v>
       </c>
     </row>
     <row r="27">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>144.302998082762</v>
+        <v>144.3029980827619</v>
       </c>
       <c r="H27" t="n">
-        <v>72.78618054405011</v>
+        <v>72.78618054405017</v>
       </c>
     </row>
     <row r="28">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-1.124621540774142</v>
+        <v>-1.124621540774178</v>
       </c>
       <c r="H30" t="n">
         <v>149.3483064930605</v>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-8.926282347552984</v>
+        <v>-8.92628234755297</v>
       </c>
       <c r="H31" t="n">
         <v>140.8531563426833</v>
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>84.55953825837595</v>
+        <v>84.55953825837594</v>
       </c>
       <c r="H32" t="n">
-        <v>105.9998879475913</v>
+        <v>105.9998879475914</v>
       </c>
     </row>
     <row r="33">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>84.4646593230724</v>
+        <v>84.46465932307238</v>
       </c>
       <c r="H33" t="n">
         <v>146.2553108549476</v>
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>94.0568443098531</v>
+        <v>94.05684430985313</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2401255609142</v>
+        <v>140.2401255609141</v>
       </c>
     </row>
     <row r="35">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>86.45682148276967</v>
+        <v>86.4568214827697</v>
       </c>
       <c r="H35" t="n">
         <v>161.8747877578147</v>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-52.55165128654878</v>
+        <v>-52.55165128654881</v>
       </c>
       <c r="H36" t="n">
         <v>167.0911200681405</v>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-54.57193667865072</v>
+        <v>-54.57193667865074</v>
       </c>
       <c r="H37" t="n">
         <v>123.3744249161795</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>88.61618907522043</v>
+        <v>88.61618907522046</v>
       </c>
       <c r="H39" t="n">
         <v>103.7761553791702</v>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>81.53209518805275</v>
+        <v>81.53209518805274</v>
       </c>
       <c r="H40" t="n">
-        <v>120.9835662083331</v>
+        <v>120.9835662083332</v>
       </c>
     </row>
     <row r="41">
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>29.77131738883536</v>
+        <v>29.77131738883539</v>
       </c>
       <c r="H41" t="n">
-        <v>122.8020283371455</v>
+        <v>122.8020283371454</v>
       </c>
     </row>
     <row r="42">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>70.26418508420406</v>
+        <v>70.26418508420407</v>
       </c>
       <c r="H43" t="n">
         <v>112.3099212191463</v>
@@ -1784,7 +1784,7 @@
         <v>105.7065358879737</v>
       </c>
       <c r="H45" t="n">
-        <v>74.90199709998402</v>
+        <v>74.90199709998396</v>
       </c>
     </row>
     <row r="46">
@@ -1814,7 +1814,7 @@
         <v>142.3304934262701</v>
       </c>
       <c r="H46" t="n">
-        <v>75.80629079622669</v>
+        <v>75.80629079622675</v>
       </c>
     </row>
     <row r="47">
@@ -1844,7 +1844,7 @@
         <v>125.2711393165202</v>
       </c>
       <c r="H47" t="n">
-        <v>92.45731319609996</v>
+        <v>92.45731319609997</v>
       </c>
     </row>
     <row r="48">
@@ -1874,7 +1874,7 @@
         <v>127.2162462049819</v>
       </c>
       <c r="H48" t="n">
-        <v>88.28605521328861</v>
+        <v>88.28605521328863</v>
       </c>
     </row>
     <row r="49">
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>135.5181495977433</v>
+        <v>135.5181495977434</v>
       </c>
       <c r="H49" t="n">
-        <v>84.31936326867594</v>
+        <v>84.3193632686759</v>
       </c>
     </row>
     <row r="50">
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>111.0389102824069</v>
+        <v>111.0389102824068</v>
       </c>
       <c r="H50" t="n">
-        <v>80.75799537221523</v>
+        <v>80.75799537221529</v>
       </c>
     </row>
     <row r="51">
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>122.5505564914239</v>
+        <v>122.550556491424</v>
       </c>
       <c r="H51" t="n">
-        <v>79.58001565739193</v>
+        <v>79.58001565739187</v>
       </c>
     </row>
   </sheetData>
